--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H2">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.44356366666667</v>
+        <v>8.461686666666667</v>
       </c>
       <c r="N2">
-        <v>46.330691</v>
+        <v>25.38506</v>
       </c>
       <c r="O2">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="P2">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="Q2">
-        <v>1712.080072784061</v>
+        <v>974.9671246029422</v>
       </c>
       <c r="R2">
-        <v>15408.72065505655</v>
+        <v>8774.704121426479</v>
       </c>
       <c r="S2">
-        <v>0.07332905552284597</v>
+        <v>0.05222878293416269</v>
       </c>
       <c r="T2">
-        <v>0.07332905552284597</v>
+        <v>0.05222878293416268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H3">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>3.646629</v>
       </c>
       <c r="O3">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="P3">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="Q3">
-        <v>134.755616827223</v>
+        <v>140.056528943548</v>
       </c>
       <c r="R3">
-        <v>1212.800551445007</v>
+        <v>1260.508760491932</v>
       </c>
       <c r="S3">
-        <v>0.005771635489145204</v>
+        <v>0.007502798673015653</v>
       </c>
       <c r="T3">
-        <v>0.005771635489145203</v>
+        <v>0.007502798673015653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H4">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.17500933333333</v>
+        <v>16.89366666666666</v>
       </c>
       <c r="N4">
-        <v>39.525028</v>
+        <v>50.681</v>
       </c>
       <c r="O4">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="P4">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="Q4">
-        <v>1460.587169205658</v>
+        <v>1946.511406394222</v>
       </c>
       <c r="R4">
-        <v>13145.28452285092</v>
+        <v>17518.602657548</v>
       </c>
       <c r="S4">
-        <v>0.06255751663090978</v>
+        <v>0.1042742049018714</v>
       </c>
       <c r="T4">
-        <v>0.06255751663090976</v>
+        <v>0.1042742049018714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H5">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.02356833333333</v>
+        <v>18.58845466666667</v>
       </c>
       <c r="N5">
-        <v>69.070705</v>
+        <v>55.76536400000001</v>
       </c>
       <c r="O5">
-        <v>0.4355765604134518</v>
+        <v>0.4116191719997629</v>
       </c>
       <c r="P5">
-        <v>0.4355765604134518</v>
+        <v>0.411619171999763</v>
       </c>
       <c r="Q5">
-        <v>2552.402631846057</v>
+        <v>2141.787200483924</v>
       </c>
       <c r="R5">
-        <v>22971.62368661452</v>
+        <v>19276.08480435531</v>
       </c>
       <c r="S5">
-        <v>0.1093203976160665</v>
+        <v>0.1147350879454518</v>
       </c>
       <c r="T5">
-        <v>0.1093203976160665</v>
+        <v>0.1147350879454518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J6">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.44356366666667</v>
+        <v>8.461686666666667</v>
       </c>
       <c r="N6">
-        <v>46.330691</v>
+        <v>25.38506</v>
       </c>
       <c r="O6">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="P6">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="Q6">
-        <v>2854.616137448394</v>
+        <v>1564.07341142604</v>
       </c>
       <c r="R6">
-        <v>25691.54523703555</v>
+        <v>14076.66070283436</v>
       </c>
       <c r="S6">
-        <v>0.1222643196231903</v>
+        <v>0.08378708228929697</v>
       </c>
       <c r="T6">
-        <v>0.1222643196231903</v>
+        <v>0.08378708228929696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J7">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>3.646629</v>
       </c>
       <c r="O7">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="P7">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="Q7">
         <v>224.683158528486</v>
@@ -883,10 +883,10 @@
         <v>2022.148426756374</v>
       </c>
       <c r="S7">
-        <v>0.009623267082357887</v>
+        <v>0.01203622934519504</v>
       </c>
       <c r="T7">
-        <v>0.009623267082357886</v>
+        <v>0.01203622934519504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J8">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.17500933333333</v>
+        <v>16.89366666666666</v>
       </c>
       <c r="N8">
-        <v>39.525028</v>
+        <v>50.681</v>
       </c>
       <c r="O8">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="P8">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="Q8">
-        <v>2435.292466540152</v>
+        <v>3122.655789054</v>
       </c>
       <c r="R8">
-        <v>21917.63219886137</v>
+        <v>28103.902101486</v>
       </c>
       <c r="S8">
-        <v>0.1043045236797255</v>
+        <v>0.1672800110578371</v>
       </c>
       <c r="T8">
-        <v>0.1043045236797255</v>
+        <v>0.1672800110578371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J9">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.02356833333333</v>
+        <v>18.58845466666667</v>
       </c>
       <c r="N9">
-        <v>69.070705</v>
+        <v>55.76536400000001</v>
       </c>
       <c r="O9">
-        <v>0.4355765604134518</v>
+        <v>0.4116191719997629</v>
       </c>
       <c r="P9">
-        <v>0.4355765604134518</v>
+        <v>0.411619171999763</v>
       </c>
       <c r="Q9">
-        <v>4255.71785920347</v>
+        <v>3435.923456981976</v>
       </c>
       <c r="R9">
-        <v>38301.46073283123</v>
+        <v>30923.31111283779</v>
       </c>
       <c r="S9">
-        <v>0.1822740513997317</v>
+        <v>0.1840616938609008</v>
       </c>
       <c r="T9">
-        <v>0.1822740513997317</v>
+        <v>0.1840616938609008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H10">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.44356366666667</v>
+        <v>8.461686666666667</v>
       </c>
       <c r="N10">
-        <v>46.330691</v>
+        <v>25.38506</v>
       </c>
       <c r="O10">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="P10">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="Q10">
-        <v>784.2037002714751</v>
+        <v>512.3632226802445</v>
       </c>
       <c r="R10">
-        <v>7057.833302443276</v>
+        <v>4611.2690041222</v>
       </c>
       <c r="S10">
-        <v>0.03358774954077813</v>
+        <v>0.02744718961853475</v>
       </c>
       <c r="T10">
-        <v>0.03358774954077814</v>
+        <v>0.02744718961853474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H11">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>3.646629</v>
       </c>
       <c r="O11">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="P11">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="Q11">
-        <v>61.723662945525</v>
+        <v>73.60229151947001</v>
       </c>
       <c r="R11">
-        <v>555.5129665097251</v>
+        <v>662.42062367523</v>
       </c>
       <c r="S11">
-        <v>0.002643648494690879</v>
+        <v>0.003942859210553284</v>
       </c>
       <c r="T11">
-        <v>0.002643648494690878</v>
+        <v>0.003942859210553284</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H12">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.17500933333333</v>
+        <v>16.89366666666666</v>
       </c>
       <c r="N12">
-        <v>39.525028</v>
+        <v>50.681</v>
       </c>
       <c r="O12">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="P12">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="Q12">
-        <v>669.0095170593</v>
+        <v>1022.927678274444</v>
       </c>
       <c r="R12">
-        <v>6021.0856535337</v>
+        <v>9206.34910447</v>
       </c>
       <c r="S12">
-        <v>0.02865393786283574</v>
+        <v>0.05479801966420247</v>
       </c>
       <c r="T12">
-        <v>0.02865393786283574</v>
+        <v>0.05479801966420246</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H13">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.02356833333333</v>
+        <v>18.58845466666667</v>
       </c>
       <c r="N13">
-        <v>69.070705</v>
+        <v>55.76536400000001</v>
       </c>
       <c r="O13">
-        <v>0.4355765604134518</v>
+        <v>0.4116191719997629</v>
       </c>
       <c r="P13">
-        <v>0.4355765604134518</v>
+        <v>0.411619171999763</v>
       </c>
       <c r="Q13">
-        <v>1169.106293738625</v>
+        <v>1125.548713021631</v>
       </c>
       <c r="R13">
-        <v>10521.95664364763</v>
+        <v>10129.93841719468</v>
       </c>
       <c r="S13">
-        <v>0.05007327734751402</v>
+        <v>0.06029540682017736</v>
       </c>
       <c r="T13">
-        <v>0.05007327734751404</v>
+        <v>0.06029540682017735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H14">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.44356366666667</v>
+        <v>8.461686666666667</v>
       </c>
       <c r="N14">
-        <v>46.330691</v>
+        <v>25.38506</v>
       </c>
       <c r="O14">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="P14">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="Q14">
-        <v>1470.717697170175</v>
+        <v>446.3506575060556</v>
       </c>
       <c r="R14">
-        <v>13236.45927453157</v>
+        <v>4017.1559175545</v>
       </c>
       <c r="S14">
-        <v>0.06299141108444301</v>
+        <v>0.02391091044520971</v>
       </c>
       <c r="T14">
-        <v>0.06299141108444301</v>
+        <v>0.02391091044520971</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H15">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>3.646629</v>
       </c>
       <c r="O15">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="P15">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="Q15">
-        <v>115.75829519387</v>
+        <v>64.11941716232501</v>
       </c>
       <c r="R15">
-        <v>1041.82465674483</v>
+        <v>577.0747544609251</v>
       </c>
       <c r="S15">
-        <v>0.004957972813560051</v>
+        <v>0.003434863634196832</v>
       </c>
       <c r="T15">
-        <v>0.00495797281356005</v>
+        <v>0.003434863634196832</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H16">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.17500933333333</v>
+        <v>16.89366666666666</v>
       </c>
       <c r="N16">
-        <v>39.525028</v>
+        <v>50.681</v>
       </c>
       <c r="O16">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="P16">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="Q16">
-        <v>1254.679282913062</v>
+        <v>891.1342999805555</v>
       </c>
       <c r="R16">
-        <v>11292.11354621756</v>
+        <v>8020.208699825</v>
       </c>
       <c r="S16">
-        <v>0.05373840176206567</v>
+        <v>0.0477378762261611</v>
       </c>
       <c r="T16">
-        <v>0.05373840176206567</v>
+        <v>0.04773787622616111</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H17">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.02356833333333</v>
+        <v>18.58845466666667</v>
       </c>
       <c r="N17">
-        <v>69.070705</v>
+        <v>55.76536400000001</v>
       </c>
       <c r="O17">
-        <v>0.4355765604134518</v>
+        <v>0.4116191719997629</v>
       </c>
       <c r="P17">
-        <v>0.4355765604134518</v>
+        <v>0.411619171999763</v>
       </c>
       <c r="Q17">
-        <v>2192.574857118373</v>
+        <v>980.5337031885889</v>
       </c>
       <c r="R17">
-        <v>19733.17371406535</v>
+        <v>8824.803328697302</v>
       </c>
       <c r="S17">
-        <v>0.09390883405013951</v>
+        <v>0.05252698337323298</v>
       </c>
       <c r="T17">
-        <v>0.09390883405013953</v>
+        <v>0.05252698337323299</v>
       </c>
     </row>
   </sheetData>
